--- a/docs/Project Satus.xlsx
+++ b/docs/Project Satus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GESTIONE_PROCESSO\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GPOI\tournament creator\Tournament-Creator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Attività</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Realizzazzione GUI</t>
+  </si>
+  <si>
+    <t>Creazione Database</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-410]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-410]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +385,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,19 +422,19 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>43164</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43164</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="1">
+        <v>43164</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43164</v>
+      </c>
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="2">
-        <v>43164</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
+        <v>43164</v>
+      </c>
+      <c r="F2" s="1">
         <v>43164</v>
       </c>
     </row>
@@ -440,19 +442,19 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>43164</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43164</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="1">
+        <v>43164</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43164</v>
+      </c>
+      <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="2">
-        <v>43164</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <v>43164</v>
+      </c>
+      <c r="F3" s="1">
         <v>43164</v>
       </c>
     </row>
@@ -460,19 +462,19 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>43171</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43171</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
-        <v>43171</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <v>43171</v>
+      </c>
+      <c r="F4" s="1">
         <v>43171</v>
       </c>
     </row>
@@ -480,19 +482,19 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>43171</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43171</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="2">
-        <v>43171</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>43171</v>
+      </c>
+      <c r="F5" s="1">
         <v>43171</v>
       </c>
     </row>
@@ -500,13 +502,13 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>43157</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>43202</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -514,118 +516,133 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43158</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43179</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43158</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43179</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
